--- a/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
+++ b/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\01-01珊瑚配置产品\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="清单" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1050">
   <si>
     <t>I19BM8</t>
   </si>
@@ -3117,6 +3117,118 @@
   </si>
   <si>
     <t>I20AW3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AW6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AW5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿黔东南绿通VIP白金卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AW9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿电销快捷垫付绿通VIP卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AX0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿电销快捷垫付绿通VIP白金卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AX1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿电销快捷垫付绿通VIP钻石卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP卡5年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP钻石卡3年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿黔东南绿通VIP钻石卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AF0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP白金卡10年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP钻石卡5年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP白金卡5年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP白金卡3年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP钻石卡1年期(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP白金卡1年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP钻石卡10年期（珊瑚）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3190,7 +3302,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3487,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="C506" sqref="C506"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7587,10 +7709,122 @@
         <v>1019</v>
       </c>
     </row>
+    <row r="512" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1049</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
+++ b/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1058">
   <si>
     <t>I19BM8</t>
   </si>
@@ -3229,6 +3229,38 @@
   </si>
   <si>
     <t>重庆国寿重疾垫付绿通VIP钻石卡10年期（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AU3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AX8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京国寿绿通VIP钻石卡三年期(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿紫云快捷垫付绿通VIP卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I19BD4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿质子重离子服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏国寿快捷垫付绿通VIP钻石卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AX7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3302,17 +3334,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3609,10 +3631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="B532" sqref="B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7821,10 +7843,42 @@
         <v>1049</v>
       </c>
     </row>
+    <row r="526" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1052</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
+++ b/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="清单" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="10-27统计" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$548</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4902" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1731">
   <si>
     <t>I19BM8</t>
   </si>
@@ -4496,13 +4500,831 @@
   </si>
   <si>
     <t>李小慧</t>
+  </si>
+  <si>
+    <t>I20BY8</t>
+  </si>
+  <si>
+    <t>招商信诺快捷垫付服务</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>I20BY4</t>
+  </si>
+  <si>
+    <t>禾一健康绿通VIP钻石卡十年期</t>
+  </si>
+  <si>
+    <t>I20BY6</t>
+  </si>
+  <si>
+    <t>江苏国寿连云港快捷垫付绿通VIP卡</t>
+  </si>
+  <si>
+    <t>I20BY1</t>
+  </si>
+  <si>
+    <t>山东人保快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>I20BY2</t>
+  </si>
+  <si>
+    <t>山东人保快捷垫付卡五年期</t>
+  </si>
+  <si>
+    <t>I20BY3</t>
+  </si>
+  <si>
+    <t>山东人保快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BY0</t>
+  </si>
+  <si>
+    <t>山东人保急救卡</t>
+  </si>
+  <si>
+    <t>人伤紧急救援</t>
+  </si>
+  <si>
+    <t>I20BX8</t>
+  </si>
+  <si>
+    <t>浙江国寿宁波快捷垫付绿通VIP钻石卡三年期</t>
+  </si>
+  <si>
+    <t>B20AJ3</t>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP卡1年期（线下）</t>
+  </si>
+  <si>
+    <t>I20BX1</t>
+  </si>
+  <si>
+    <t>中华联合转诊导医卡</t>
+  </si>
+  <si>
+    <t>I20BX0</t>
+  </si>
+  <si>
+    <t>西藏国寿百万医疗快捷垫付绿通VIP钻石卡(远盟判责)</t>
+  </si>
+  <si>
+    <t>I20BW8</t>
+  </si>
+  <si>
+    <t>西藏国寿百万医疗快捷垫付绿通VIP卡(远盟判责)</t>
+  </si>
+  <si>
+    <t>I20BW9</t>
+  </si>
+  <si>
+    <t>西藏国寿百万医疗快捷垫付绿通VIP白金卡(远盟判责)</t>
+  </si>
+  <si>
+    <t>I20BW7</t>
+  </si>
+  <si>
+    <t>江苏国寿连云港绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BW6</t>
+  </si>
+  <si>
+    <t>江苏国寿扬州绿通VIP钻石卡五年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BW4</t>
+  </si>
+  <si>
+    <t>江苏国寿连云港绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BW5</t>
+  </si>
+  <si>
+    <t>江苏国寿连云港绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BW3</t>
+  </si>
+  <si>
+    <t>浙江国寿宁波快捷垫付绿通VIP钻石卡五年期</t>
+  </si>
+  <si>
+    <t>I20BW2</t>
+  </si>
+  <si>
+    <t>齐齐哈尔国寿绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BW1</t>
+  </si>
+  <si>
+    <t>齐齐哈尔国寿绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品标识码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证营销员</t>
+  </si>
+  <si>
+    <t>验证营销员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20BW0</t>
+  </si>
+  <si>
+    <t>黑龙江国寿哈尔滨绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BV7</t>
+  </si>
+  <si>
+    <t>河北国寿衡水快捷垫付绿通VIP卡</t>
+  </si>
+  <si>
+    <t>I20BV8</t>
+  </si>
+  <si>
+    <t>江苏国寿扬州绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BV9</t>
+  </si>
+  <si>
+    <t>齐齐哈尔国寿绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BV6</t>
+  </si>
+  <si>
+    <t>浙江国寿宁波快捷垫付绿通VIP钻石卡十年期</t>
+  </si>
+  <si>
+    <t>I20BV5</t>
+  </si>
+  <si>
+    <t>广东国寿快捷垫付绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BV4</t>
+  </si>
+  <si>
+    <t>浙江国寿杭州绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BU2</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP钻石卡三十年期</t>
+  </si>
+  <si>
+    <t>I20BU3</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP钻石卡二十年期</t>
+  </si>
+  <si>
+    <t>I20BT6</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP卡二十年期</t>
+  </si>
+  <si>
+    <t>I20BT5</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP卡六年期</t>
+  </si>
+  <si>
+    <t>I20BT1</t>
+  </si>
+  <si>
+    <t>贵州国寿快捷垫付卡二十年期(远盟)</t>
+  </si>
+  <si>
+    <t>I20BT0</t>
+  </si>
+  <si>
+    <t>贵州国寿快捷垫付卡十年期(远盟)</t>
+  </si>
+  <si>
+    <t>I20BS9</t>
+  </si>
+  <si>
+    <t>贵州国寿快捷垫付卡五年期(远盟)</t>
+  </si>
+  <si>
+    <t>I20BS8</t>
+  </si>
+  <si>
+    <t>贵州国寿快捷垫付卡(远盟)</t>
+  </si>
+  <si>
+    <t>I20BS5</t>
+  </si>
+  <si>
+    <t>北京国寿绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BS6</t>
+  </si>
+  <si>
+    <t>北京国寿绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BS7</t>
+  </si>
+  <si>
+    <t>北京国寿绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BS3</t>
+  </si>
+  <si>
+    <t>四川国寿百万医疗快捷垫付绿通VIP钻石卡三年期</t>
+  </si>
+  <si>
+    <t>I20BS4</t>
+  </si>
+  <si>
+    <t>四川国寿百万医疗快捷垫付绿通VIP卡三年期</t>
+  </si>
+  <si>
+    <t>I20BR8</t>
+  </si>
+  <si>
+    <t>山东新华百万医疗快捷垫付绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BR9</t>
+  </si>
+  <si>
+    <t>山东新华百万医疗快捷垫付绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BS0</t>
+  </si>
+  <si>
+    <t>山东新华百万医疗快捷垫付绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BR7</t>
+  </si>
+  <si>
+    <t>四川国寿成都绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BM6</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP钻石卡</t>
+  </si>
+  <si>
+    <t>I20BQ4</t>
+  </si>
+  <si>
+    <t>贵州国寿无忧尊爱卡</t>
+  </si>
+  <si>
+    <t>重大疾病绿色通道服务、院后照护、在线咨询、电话医生、精准健康、优惠购药、自助挂号</t>
+  </si>
+  <si>
+    <t>I20BQ0</t>
+  </si>
+  <si>
+    <t>贵州国寿无忧颐爱卡</t>
+  </si>
+  <si>
+    <t>I20BQ9</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP钻石卡十年期</t>
+  </si>
+  <si>
+    <t>I20BR0</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP白金卡十年期</t>
+  </si>
+  <si>
+    <t>I20BQ5</t>
+  </si>
+  <si>
+    <t>河南国寿快捷垫付卡五年期</t>
+  </si>
+  <si>
+    <t>I20BQ3</t>
+  </si>
+  <si>
+    <t>河南国寿快捷垫付卡三年期</t>
+  </si>
+  <si>
+    <t>I20BQ2</t>
+  </si>
+  <si>
+    <t>河南国寿快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>I20BQ1</t>
+  </si>
+  <si>
+    <t>四川国寿遂宁快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BM7</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP白金卡</t>
+  </si>
+  <si>
+    <t>I20BP9</t>
+  </si>
+  <si>
+    <t>江苏国寿淮安快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>I20BP8</t>
+  </si>
+  <si>
+    <t>江苏国寿淮安快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BO9</t>
+  </si>
+  <si>
+    <t>浙江国寿宁波快捷垫付绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BP1</t>
+  </si>
+  <si>
+    <t>河南国寿快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BN8</t>
+  </si>
+  <si>
+    <t>昕庆远程视频医疗咨询服务</t>
+  </si>
+  <si>
+    <t>I20BO5</t>
+  </si>
+  <si>
+    <t>贵州国寿铜仁电话医生卡</t>
+  </si>
+  <si>
+    <t>I20BO1</t>
+  </si>
+  <si>
+    <t>河北国寿沧州百万医疗快捷垫付绿通VIP白金卡三年期</t>
+  </si>
+  <si>
+    <t>I20BO2</t>
+  </si>
+  <si>
+    <t>河北国寿沧州百万医疗快捷垫付绿通VIP白金卡五年期</t>
+  </si>
+  <si>
+    <t>I20BO3</t>
+  </si>
+  <si>
+    <t>河北国寿沧州百万医疗快捷垫付绿通VIP白金卡十年期</t>
+  </si>
+  <si>
+    <t>I20BO0</t>
+  </si>
+  <si>
+    <t>太平人寿陕西分公司电话医生卡</t>
+  </si>
+  <si>
+    <t>I20BN4</t>
+  </si>
+  <si>
+    <t>健康管家卡(远盟内部员工)</t>
+  </si>
+  <si>
+    <t>在线咨询、电话医生、优惠购药、自助挂号</t>
+  </si>
+  <si>
+    <t>I16AK0</t>
+  </si>
+  <si>
+    <t>PICC北分团险咨询挂号服务</t>
+  </si>
+  <si>
+    <t>I20BN1</t>
+  </si>
+  <si>
+    <t>禾一健康快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BM8</t>
+  </si>
+  <si>
+    <t>河北国寿邯郸百万医疗快捷垫付绿通VIP白金卡三年期</t>
+  </si>
+  <si>
+    <t>I20BM9</t>
+  </si>
+  <si>
+    <t>河北国寿邯郸百万医疗快捷垫付绿通VIP白金卡五年期</t>
+  </si>
+  <si>
+    <t>I20BN0</t>
+  </si>
+  <si>
+    <t>河北国寿邯郸百万医疗快捷垫付绿通VIP白金卡十年期</t>
+  </si>
+  <si>
+    <t>I20BM5</t>
+  </si>
+  <si>
+    <t>四川国寿泸州快捷垫付绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BJ5</t>
+  </si>
+  <si>
+    <t>甘肃国寿嘉峪关快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BK5</t>
+  </si>
+  <si>
+    <t>甘肃国寿嘉峪关绿通VIP白金卡(国寿)</t>
+  </si>
+  <si>
+    <t>I20BL7</t>
+  </si>
+  <si>
+    <t>广东国寿韶关快捷垫付绿通VIP钻石卡三年期</t>
+  </si>
+  <si>
+    <t>I20BM4</t>
+  </si>
+  <si>
+    <t>西安远盟绿通白金卡(标准)</t>
+  </si>
+  <si>
+    <t>重大疾病绿色通道服务、电话医生、重大疾病绿色通道服务、电话医生</t>
+  </si>
+  <si>
+    <t>I20BI6</t>
+  </si>
+  <si>
+    <t>禾一健康快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>I20BL8</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP卡</t>
+  </si>
+  <si>
+    <t>I20BL9</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP卡三年期</t>
+  </si>
+  <si>
+    <t>I20BM0</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP卡五年期</t>
+  </si>
+  <si>
+    <t>I20BM1</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付绿通VIP卡十年期</t>
+  </si>
+  <si>
+    <t>I20BM2</t>
+  </si>
+  <si>
+    <t>四川国寿成都快捷垫付卡(保司)</t>
+  </si>
+  <si>
+    <t>I20BI9</t>
+  </si>
+  <si>
+    <t>陕西国寿宝鸡快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BJ8</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付卡五年期</t>
+  </si>
+  <si>
+    <t>I20BJ6</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>I20BJ9</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BK0</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付卡二十年期</t>
+  </si>
+  <si>
+    <t>I20BK1</t>
+  </si>
+  <si>
+    <t>甘肃国寿陇南百万医疗快捷垫付绿通VIP卡三年期</t>
+  </si>
+  <si>
+    <t>I20BK2</t>
+  </si>
+  <si>
+    <t>甘肃国寿陇南百万医疗快捷垫付绿通VIP卡十年期</t>
+  </si>
+  <si>
+    <t>I20BK3</t>
+  </si>
+  <si>
+    <t>甘肃国寿陇南百万医疗快捷垫付绿通VIP钻石卡</t>
+  </si>
+  <si>
+    <t>I20BK4</t>
+  </si>
+  <si>
+    <t>甘肃国寿陇南百万医疗快捷垫付绿通VIP钻石卡十年期</t>
+  </si>
+  <si>
+    <t>I20BJ7</t>
+  </si>
+  <si>
+    <t>广东国寿潮州快捷垫付绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BJ0</t>
+  </si>
+  <si>
+    <t>PICC北分对症预约服务</t>
+  </si>
+  <si>
+    <t>对症预约</t>
+  </si>
+  <si>
+    <t>I20BJ4</t>
+  </si>
+  <si>
+    <t>河北国寿廊坊绿通VIP白金卡三年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BJ1</t>
+  </si>
+  <si>
+    <t>河北国寿保定百万医疗快捷垫付绿通VIP钻石卡五年期</t>
+  </si>
+  <si>
+    <t>I20BJ2</t>
+  </si>
+  <si>
+    <t>河北国寿保定百万医疗快捷垫付绿通VIP白金卡五年期</t>
+  </si>
+  <si>
+    <t>I20BJ3</t>
+  </si>
+  <si>
+    <t>河北国寿保定百万医疗快捷垫付绿通VIP白金卡三年期</t>
+  </si>
+  <si>
+    <t>I20BI8</t>
+  </si>
+  <si>
+    <t>甘肃国寿白银百万医疗快捷垫付绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BE0</t>
+  </si>
+  <si>
+    <t>四川国寿眉山绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BI5</t>
+  </si>
+  <si>
+    <t>内蒙古国寿呼伦贝尔快捷垫付卡十五年期</t>
+  </si>
+  <si>
+    <t>I20BI3</t>
+  </si>
+  <si>
+    <t>内蒙古国寿呼伦贝尔快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>I20BI1</t>
+  </si>
+  <si>
+    <t>四川国寿眉山快捷垫付绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BI4</t>
+  </si>
+  <si>
+    <t>内蒙古国寿呼伦贝尔快捷垫付卡二十年期</t>
+  </si>
+  <si>
+    <t>I20BH8</t>
+  </si>
+  <si>
+    <t>浙江国寿快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BH9</t>
+  </si>
+  <si>
+    <t>浙江国寿快捷垫付卡五年期</t>
+  </si>
+  <si>
+    <t>I20BI0</t>
+  </si>
+  <si>
+    <t>浙江国寿快捷垫付卡十年期</t>
+  </si>
+  <si>
+    <t>I20BG8</t>
+  </si>
+  <si>
+    <t>湖南智麦健康咨询服务卡</t>
+  </si>
+  <si>
+    <t>在线咨询、电话医生</t>
+  </si>
+  <si>
+    <t>I20BH4</t>
+  </si>
+  <si>
+    <t>甘肃国寿酒泉百万医疗快捷垫付绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH5</t>
+  </si>
+  <si>
+    <t>四川国寿自贡百万医疗快捷垫付绿通VIP卡三年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BG9</t>
+  </si>
+  <si>
+    <t>江苏国寿淮安快捷垫付绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BG7</t>
+  </si>
+  <si>
+    <t>山东国寿银保快捷垫付绿通VIP卡十年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH0</t>
+  </si>
+  <si>
+    <t>山东国寿绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH1</t>
+  </si>
+  <si>
+    <t>山东国寿银保快捷垫付绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH2</t>
+  </si>
+  <si>
+    <t>山东国寿银保快捷垫付绿通VIP卡三年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH3</t>
+  </si>
+  <si>
+    <t>山东国寿银保快捷垫付绿通VIP卡五年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH6</t>
+  </si>
+  <si>
+    <t>甘肃国寿酒泉百万医疗快捷垫付绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BH7</t>
+  </si>
+  <si>
+    <t>甘肃国寿酒泉百万医疗快捷垫付绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BG5</t>
+  </si>
+  <si>
+    <t>河南国寿信阳快捷垫付绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20BG4</t>
+  </si>
+  <si>
+    <t>河南国寿信阳快捷垫付绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>B20AH2</t>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP卡3年期（珊瑚）</t>
+  </si>
+  <si>
+    <t>I20BG1</t>
+  </si>
+  <si>
+    <t>山东国寿东营快捷垫付绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>B20AH3</t>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP卡10年期（珊瑚）</t>
+  </si>
+  <si>
+    <t>B20AH1</t>
+  </si>
+  <si>
+    <t>重庆国寿重疾垫付绿通VIP卡1年期（珊瑚）</t>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐震东</t>
+  </si>
+  <si>
+    <t>闫军仙</t>
+  </si>
+  <si>
+    <t>汪希慧</t>
+  </si>
+  <si>
+    <t>杨为感</t>
+  </si>
+  <si>
+    <t>容淋</t>
+  </si>
+  <si>
+    <t>金晓可</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>计数项:负责人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4547,6 +5369,13 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFDD5A43"/>
+      <name val="FontAwesome"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4606,7 +5435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4649,11 +5478,26 @@
     <xf numFmtId="22" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4663,6 +5507,286 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFE1E1E1"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFE1E1E1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4675,6 +5799,827 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows 用户" refreshedDate="44131.488302083337" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="124">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F1:H1048576" sheet="10-27统计"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="验证营销员" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="否"/>
+        <s v="是"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="创建时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-08-10T11:03:56" maxDate="2020-10-23T15:23:39"/>
+    </cacheField>
+    <cacheField name="负责人" numFmtId="0">
+      <sharedItems containsBlank="1" count="24">
+        <s v="岳志涛"/>
+        <s v="梅振兴"/>
+        <s v="王海龙"/>
+        <s v="徐震东"/>
+        <s v="容淋"/>
+        <s v="金晓可"/>
+        <s v="于广静"/>
+        <s v="杨会利"/>
+        <s v="刘金芳"/>
+        <s v="霍鑫"/>
+        <s v="王明辉"/>
+        <s v="蒲菊"/>
+        <s v="陈飞"/>
+        <s v="黄晓莉"/>
+        <s v="吴跃"/>
+        <s v="闫军仙"/>
+        <s v="成天乐"/>
+        <s v="汪希慧"/>
+        <s v="杨为感"/>
+        <s v="金煜阳"/>
+        <s v="赵金辉"/>
+        <s v="吕戍江"/>
+        <s v="戴晓欢"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="124">
+  <r>
+    <x v="0"/>
+    <d v="2020-10-23T15:23:39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-10-23T15:20:29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-10-21T19:02:17"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-21T19:01:07"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-21T18:59:58"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-21T18:59:03"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-20T09:57:03"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-15T11:35:02"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-13T15:46:58"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-10-13T10:15:21"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-12T17:05:25"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-12T17:04:22"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-12T17:03:12"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-10-12T10:30:06"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-12T10:00:06"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-10-12T09:56:11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-10-12T09:54:47"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-12T09:10:28"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T17:16:28"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T17:11:22"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T17:08:02"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T17:01:25"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T17:00:11"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T16:58:34"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T16:04:28"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-10-09T11:07:50"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-30T13:46:10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-27T09:42:47"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-27T09:42:03"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T16:26:26"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T16:24:30"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T15:34:46"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T15:33:58"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T15:33:10"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T15:32:17"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T09:08:11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T09:07:37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-21T09:07:08"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-18T15:26:03"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-18T15:24:14"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-17T10:33:36"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-17T10:32:42"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-17T10:31:28"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-16T16:36:32"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-14T11:08:01"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-14T09:53:16"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-14T09:51:50"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-11T16:40:00"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-11T16:34:55"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-08T17:18:48"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-08T17:17:34"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-08T17:16:47"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-08T15:33:59"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-08T14:08:26"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-08T10:06:56"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-08T10:05:37"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-05T10:43:35"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-05T10:40:11"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-09-01T16:36:44"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-09-01T16:32:25"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-31T15:55:58"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-31T15:54:54"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-31T15:54:02"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-31T10:59:58"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-28T15:21:13"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-28T13:53:30"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-25T17:44:09"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-25T17:42:51"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-25T17:41:04"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-25T17:30:48"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-25T13:19:04"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-25T09:24:30"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-25T09:23:57"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-24T17:40:28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T17:03:45"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T17:03:28"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T15:53:14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T15:05:37"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T15:04:41"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T15:03:38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T15:02:39"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-24T14:59:18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-24T11:51:03"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-21T14:19:42"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-21T14:18:44"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-21T14:17:53"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-21T14:16:53"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-21T14:14:59"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-21T14:13:41"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-21T14:11:38"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-21T14:10:29"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-18T18:02:11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-18T17:01:32"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-18T14:06:22"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-17T16:22:50"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-17T16:21:43"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-17T16:19:51"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-14T14:45:48"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-14T10:31:03"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T17:28:36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T17:28:14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T16:31:48"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T16:30:13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T14:29:31"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T14:29:06"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-13T14:28:37"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-12T16:12:43"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T16:06:14"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-12T16:03:47"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2020-08-12T16:01:13"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T16:00:21"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T15:59:08"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T15:57:01"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T15:56:02"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T15:55:08"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T15:53:40"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-12T15:51:20"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-11T09:19:33"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-11T09:18:32"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-10T17:27:07"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-10T11:33:21"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-10T11:30:44"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2020-08-10T11:03:56"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="23"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:K20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="25">
+        <item x="12"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:负责人" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H124" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:H124"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="编号" dataDxfId="9"/>
+    <tableColumn id="2" name="产品标识码" dataDxfId="8"/>
+    <tableColumn id="3" name="产品名称" dataDxfId="7"/>
+    <tableColumn id="4" name="产品类型" dataDxfId="6"/>
+    <tableColumn id="5" name="服务名称" dataDxfId="5"/>
+    <tableColumn id="6" name="验证营销员" dataDxfId="4"/>
+    <tableColumn id="7" name="创建时间" dataDxfId="3"/>
+    <tableColumn id="8" name="负责人" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9223,7 +11168,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -24162,4 +26107,3373 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44127.641423611109</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44127.639224537037</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>1728</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44125.793252314812</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K4" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G5" s="7">
+        <v>44125.792442129627</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K5" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44125.791643518518</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K6" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44125.791006944448</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K7" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44124.414618055554</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K8" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G9" s="7">
+        <v>44119.482662037037</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K9" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44117.65761574074</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K10" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44117.42732638889</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44116.712094907409</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44116.711365740739</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K13" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44116.710555555554</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G15" s="7">
+        <v>44116.437569444446</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>1724</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44116.41673611111</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44116.4140162037</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G18" s="13">
+        <v>44116.413043981483</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G19" s="7">
+        <v>44116.382268518515</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44113.719768518517</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K20" s="18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G21" s="7">
+        <v>44113.716226851851</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44113.713912037034</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G23" s="7">
+        <v>44113.709317129629</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44113.708460648151</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G25" s="7">
+        <v>44113.707337962966</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G26" s="4">
+        <v>44113.669768518521</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G27" s="7">
+        <v>44113.463773148149</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G28" s="4">
+        <v>44104.57372685185</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G29" s="7">
+        <v>44101.404710648145</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G30" s="4">
+        <v>44101.40420138889</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G31" s="7">
+        <v>44095.685023148151</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G32" s="4">
+        <v>44095.683680555558</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G33" s="7">
+        <v>44095.649143518516</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G34" s="4">
+        <v>44095.648587962962</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G35" s="7">
+        <v>44095.648032407407</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G36" s="4">
+        <v>44095.647418981483</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G37" s="7">
+        <v>44095.380682870367</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G38" s="4">
+        <v>44095.380289351851</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G39" s="7">
+        <v>44095.379953703705</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G40" s="4">
+        <v>44092.643090277779</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G41" s="13">
+        <v>44092.641828703701</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G42" s="4">
+        <v>44091.44</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G43" s="7">
+        <v>44091.439375000002</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G44" s="4">
+        <v>44091.438518518517</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44090.692037037035</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G46" s="4">
+        <v>44088.463900462964</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G47" s="7">
+        <v>44088.411990740744</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44088.410995370374</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G49" s="7">
+        <v>44085.694444444445</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G50" s="4">
+        <v>44085.69091435185</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44082.721388888887</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G52" s="10">
+        <v>44082.720532407409</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G53" s="7">
+        <v>44082.719988425924</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G54" s="13">
+        <v>44082.648599537039</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G55" s="7">
+        <v>44082.589189814818</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G56" s="4">
+        <v>44082.421481481484</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G57" s="7">
+        <v>44082.420567129629</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G58" s="4">
+        <v>44079.446932870371</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G59" s="7">
+        <v>44079.444571759261</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G60" s="4">
+        <v>44075.692175925928</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G61" s="7">
+        <v>44075.68917824074</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G62" s="4">
+        <v>44074.663865740738</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G63" s="10">
+        <v>44074.663124999999</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G64" s="4">
+        <v>44074.662523148145</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G65" s="7">
+        <v>44074.458310185182</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G66" s="4">
+        <v>44071.639733796299</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G67" s="7">
+        <v>44071.578819444447</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G68" s="4">
+        <v>44068.738993055558</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G69" s="7">
+        <v>44068.73809027778</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G70" s="4">
+        <v>44068.736851851849</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G71" s="7">
+        <v>44068.729722222219</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G72" s="4">
+        <v>44068.554907407408</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G73" s="7">
+        <v>44068.392013888886</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G74" s="13">
+        <v>44068.391631944447</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G75" s="7">
+        <v>44067.736435185187</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G76" s="4">
+        <v>44067.7109375</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G77" s="7">
+        <v>44067.710740740738</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G78" s="4">
+        <v>44067.66196759259</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G79" s="7">
+        <v>44067.628900462965</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G80" s="4">
+        <v>44067.628252314818</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G81" s="7">
+        <v>44067.627523148149</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G82" s="4">
+        <v>44067.626840277779</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G83" s="10">
+        <v>44067.624513888892</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G84" s="4">
+        <v>44067.493784722225</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G85" s="7">
+        <v>44064.597013888888</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G86" s="4">
+        <v>44064.596342592595</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G87" s="7">
+        <v>44064.595752314817</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G88" s="4">
+        <v>44064.595057870371</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G89" s="7">
+        <v>44064.593738425923</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G90" s="4">
+        <v>44064.592835648145</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G91" s="7">
+        <v>44064.591412037036</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G92" s="4">
+        <v>44064.590613425928</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G93" s="7">
+        <v>44061.751516203702</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G94" s="4">
+        <v>44061.709398148145</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G95" s="7">
+        <v>44061.587754629632</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G96" s="13">
+        <v>44060.682523148149</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G97" s="7">
+        <v>44060.681747685187</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G98" s="4">
+        <v>44060.680451388886</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G99" s="7">
+        <v>44057.61513888889</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G100" s="4">
+        <v>44057.43822916667</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G101" s="7">
+        <v>44056.728194444448</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G102" s="4">
+        <v>44056.727939814817</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G103" s="7">
+        <v>44056.688750000001</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A104" s="8">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G104" s="10">
+        <v>44056.687650462962</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G105" s="7">
+        <v>44056.603831018518</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G106" s="4">
+        <v>44056.603541666664</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G107" s="7">
+        <v>44056.603206018517</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G108" s="4">
+        <v>44055.675497685188</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G109" s="7">
+        <v>44055.670995370368</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G110" s="4">
+        <v>44055.669293981482</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G111" s="7">
+        <v>44055.667511574073</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G112" s="4">
+        <v>44055.666909722226</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G113" s="7">
+        <v>44055.666064814817</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G114" s="4">
+        <v>44055.664594907408</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G115" s="7">
+        <v>44055.663912037038</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G116" s="4">
+        <v>44055.663287037038</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G117" s="7">
+        <v>44055.662268518521</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G118" s="4">
+        <v>44055.66064814815</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G119" s="7">
+        <v>44054.38857638889</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G120" s="4">
+        <v>44054.387870370374</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A121" s="5">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G121" s="7">
+        <v>44053.727164351854</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G122" s="4">
+        <v>44053.481493055559</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G123" s="7">
+        <v>44053.479675925926</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G124" s="4">
+        <v>44053.461064814815</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
+++ b/01-01珊瑚配置产品/珊瑚配置产品记录.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="清单" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="10-27统计" sheetId="4" r:id="rId3"/>
+    <sheet name="11-16统计" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$548</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="1877">
   <si>
     <t>I19BM8</t>
   </si>
@@ -5318,6 +5319,446 @@
   </si>
   <si>
     <t>计数项:负责人</t>
+  </si>
+  <si>
+    <t>I20BY9</t>
+  </si>
+  <si>
+    <t>河北国寿衡水绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CC1</t>
+  </si>
+  <si>
+    <t>河南国寿鹤壁绿通VIP卡三年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB9</t>
+  </si>
+  <si>
+    <t>贵州国寿六盘水绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB8</t>
+  </si>
+  <si>
+    <t>珊瑚健康管家测试卡</t>
+  </si>
+  <si>
+    <t>I20CB6</t>
+  </si>
+  <si>
+    <t>德宏国寿百万医疗快捷垫付绿通VIP钻石卡</t>
+  </si>
+  <si>
+    <t>I20CB7</t>
+  </si>
+  <si>
+    <t>德宏国寿百万医疗快捷垫付绿通VIP卡</t>
+  </si>
+  <si>
+    <t>I20CB3</t>
+  </si>
+  <si>
+    <t>四川国寿巴中绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB4</t>
+  </si>
+  <si>
+    <t>四川国寿巴中绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB5</t>
+  </si>
+  <si>
+    <t>四川国寿巴中绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB0</t>
+  </si>
+  <si>
+    <t>河北国寿保定绿通VIP白金卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB1</t>
+  </si>
+  <si>
+    <t>河北国寿保定绿通VIP卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CB2</t>
+  </si>
+  <si>
+    <t>河北国寿保定绿通VIP钻石卡(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CA9</t>
+  </si>
+  <si>
+    <t>PICC医疗咨询重疾二次诊疗卡</t>
+  </si>
+  <si>
+    <t>I20CA8</t>
+  </si>
+  <si>
+    <t>贵州国寿贵阳绿通VIP钻石卡十年期(珊瑚)</t>
+  </si>
+  <si>
+    <t>I20CA6</t>
+  </si>
+  <si>
+    <t>江苏国寿百万医疗快捷垫付绿通VIP白金卡五年期</t>
+  </si>
+  <si>
+    <t>I20CA3</t>
+  </si>
+  <si>
+    <t>淄博星河咨询绿通VIP卡</t>
+  </si>
+  <si>
+    <t>I20CA4</t>
+  </si>
+  <si>
+    <t>辽源国寿快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20CA5</t>
+  </si>
+  <si>
+    <t>长春国寿快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BZ9</t>
+  </si>
+  <si>
+    <t>山东国寿百万医疗快捷垫付卡十五年期</t>
+  </si>
+  <si>
+    <t>I20BZ8</t>
+  </si>
+  <si>
+    <t>白城国寿快捷垫付卡</t>
+  </si>
+  <si>
+    <t>I20BZ6</t>
+  </si>
+  <si>
+    <t>山东人保快捷垫付卡二年期</t>
+  </si>
+  <si>
+    <t>项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩晓菊</t>
+  </si>
+  <si>
+    <t>陈龙</t>
+  </si>
+  <si>
+    <t>HLS19401B017</t>
+  </si>
+  <si>
+    <t>HLS18508Q017</t>
+  </si>
+  <si>
+    <t>HLS20A1007B017</t>
+  </si>
+  <si>
+    <t>S17337BX</t>
+  </si>
+  <si>
+    <t>HLS2081002B017</t>
+  </si>
+  <si>
+    <t>HLS20A1006F017</t>
+  </si>
+  <si>
+    <t>HLS20A1005B017</t>
+  </si>
+  <si>
+    <t>HLS20A1001B017</t>
+  </si>
+  <si>
+    <t>HLS20A1008B017</t>
+  </si>
+  <si>
+    <t>HLS2091015B017</t>
+  </si>
+  <si>
+    <t>HLS2048019B017</t>
+  </si>
+  <si>
+    <t>HLS2081016D017</t>
+  </si>
+  <si>
+    <t>HLS20A1002B031</t>
+  </si>
+  <si>
+    <t>HLS2091003B017</t>
+  </si>
+  <si>
+    <t>S16123BX</t>
+  </si>
+  <si>
+    <t>HLS19320B017</t>
+  </si>
+  <si>
+    <t>HLS2061007B017</t>
+  </si>
+  <si>
+    <t>HLS2081030B017</t>
+  </si>
+  <si>
+    <t>HLS2081025B017</t>
+  </si>
+  <si>
+    <t>HLS2081009B017</t>
+  </si>
+  <si>
+    <t>HLS2081014B017</t>
+  </si>
+  <si>
+    <t>HLS201001Q017</t>
+  </si>
+  <si>
+    <t>HLS2091001B017</t>
+  </si>
+  <si>
+    <t>HLS2081032B017</t>
+  </si>
+  <si>
+    <t>HLS2081027Q017</t>
+  </si>
+  <si>
+    <t>HLS194143B017</t>
+  </si>
+  <si>
+    <t>HLS2081015B017</t>
+  </si>
+  <si>
+    <t>HLS2081022B017</t>
+  </si>
+  <si>
+    <t>HLS2081023B017</t>
+  </si>
+  <si>
+    <t>HLS18A02D017</t>
+  </si>
+  <si>
+    <t>HLS2081005B017</t>
+  </si>
+  <si>
+    <t>HLS19466B017</t>
+  </si>
+  <si>
+    <t>HLS2081019B017</t>
+  </si>
+  <si>
+    <t>HLS194160B017</t>
+  </si>
+  <si>
+    <t>HLS2081020B017</t>
+  </si>
+  <si>
+    <t>HLS194172B017</t>
+  </si>
+  <si>
+    <t>HLS2081013B017</t>
+  </si>
+  <si>
+    <t>HLS2081001Q016</t>
+  </si>
+  <si>
+    <t>HLS2081012B017</t>
+  </si>
+  <si>
+    <t>河南国寿重疾绿通项目</t>
+  </si>
+  <si>
+    <t>贵州国寿六盘水分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>传统产品市场宣传展业</t>
+  </si>
+  <si>
+    <t>云南德宏国寿垫付项目</t>
+  </si>
+  <si>
+    <t>四川国寿巴中分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>河北国寿保定分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>picc寿北分医疗服务项目</t>
+  </si>
+  <si>
+    <t>贵州国寿贵阳分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>江苏国寿住院垫付项目</t>
+  </si>
+  <si>
+    <t>淄博星河咨询绿通卡</t>
+  </si>
+  <si>
+    <t>辽源国寿垫付项目</t>
+  </si>
+  <si>
+    <t>长春国寿垫付项目</t>
+  </si>
+  <si>
+    <t>山东国寿垫付项目</t>
+  </si>
+  <si>
+    <t>白城国寿垫付卡项目</t>
+  </si>
+  <si>
+    <t>山东人保垫付项目</t>
+  </si>
+  <si>
+    <t>河北国寿衡水分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>帛康-招商信诺医疗费用垫付项目</t>
+  </si>
+  <si>
+    <t>禾一健康垫付卡业务</t>
+  </si>
+  <si>
+    <t>连云港国寿重疾卡增订项目</t>
+  </si>
+  <si>
+    <t>山东人保院前急救项目</t>
+  </si>
+  <si>
+    <t>宁波国寿重疾绿通垫付</t>
+  </si>
+  <si>
+    <t>重庆健康救援项目</t>
+  </si>
+  <si>
+    <t>中华联合集采项目</t>
+  </si>
+  <si>
+    <t>国寿西藏快捷垫付重疾绿通项目</t>
+  </si>
+  <si>
+    <t>江苏国寿扬州分公司重疾卡增订项目</t>
+  </si>
+  <si>
+    <t>齐齐哈尔国寿重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>哈尔滨国寿重疾绿通项目</t>
+  </si>
+  <si>
+    <t>河北国寿衡水重疾绿通及住院垫付项目-“含增订”</t>
+  </si>
+  <si>
+    <t>广东国寿快捷医疗垫付项目</t>
+  </si>
+  <si>
+    <t>浙江省国寿重疾垫付卡项目</t>
+  </si>
+  <si>
+    <t>国寿贵州省公司垫付卡项目</t>
+  </si>
+  <si>
+    <t>北京国寿重疾卡增订项目</t>
+  </si>
+  <si>
+    <t>国寿成都重疾绿通及快捷垫付项目</t>
+  </si>
+  <si>
+    <t>山东新华人寿绿通垫付项目</t>
+  </si>
+  <si>
+    <t>贵州VIP客户项目</t>
+  </si>
+  <si>
+    <t>河南国寿医疗垫付项目</t>
+  </si>
+  <si>
+    <t>国寿遂宁快捷垫付重疾绿通项目</t>
+  </si>
+  <si>
+    <t>淮安国寿医疗垫付项目</t>
+  </si>
+  <si>
+    <t>昕庆科技健康管理服务</t>
+  </si>
+  <si>
+    <t>国寿贵州铜仁电话医生项目</t>
+  </si>
+  <si>
+    <t>河北国寿沧州分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>太平人寿陕西电话医生卡项目</t>
+  </si>
+  <si>
+    <t>健康管家卡（远盟内部员工）</t>
+  </si>
+  <si>
+    <t>河北国寿邯郸分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>国寿泸州快捷垫付重疾绿通项目</t>
+  </si>
+  <si>
+    <t>甘肃嘉峪关国寿垫付卡项目</t>
+  </si>
+  <si>
+    <t>嘉峪关国寿绿通卡项目</t>
+  </si>
+  <si>
+    <t>韶关国寿重疾垫付卡项目</t>
+  </si>
+  <si>
+    <t>西安远盟-医疗服务项目</t>
+  </si>
+  <si>
+    <t>国寿宝鸡垫付卡项目</t>
+  </si>
+  <si>
+    <t>甘肃国寿陇南分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>潮州国寿重疾绿通卡项目</t>
+  </si>
+  <si>
+    <t>河北国寿廊坊分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>国寿保定快捷垫付重疾绿通项目</t>
+  </si>
+  <si>
+    <t>甘肃国寿白银分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>四川国寿眉山分公司重疾绿通增订项目</t>
+  </si>
+  <si>
+    <t>呼伦贝尔垫付卡项目</t>
+  </si>
+  <si>
+    <t>国寿眉山快捷垫付重疾绿通项目</t>
+  </si>
+  <si>
+    <t>湖南智麦健康咨询项目</t>
+  </si>
+  <si>
+    <t>国寿甘肃酒泉重疾绿通垫付项目</t>
+  </si>
+  <si>
+    <t>国寿自贡重疾绿通及垫付项目</t>
   </si>
 </sst>
 </file>
@@ -5510,30 +5951,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5787,6 +6204,30 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6480,7 +6921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:K20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -6606,17 +7047,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H124" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H124" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:H124"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="编号" dataDxfId="9"/>
-    <tableColumn id="2" name="产品标识码" dataDxfId="8"/>
-    <tableColumn id="3" name="产品名称" dataDxfId="7"/>
-    <tableColumn id="4" name="产品类型" dataDxfId="6"/>
-    <tableColumn id="5" name="服务名称" dataDxfId="5"/>
-    <tableColumn id="6" name="验证营销员" dataDxfId="4"/>
-    <tableColumn id="7" name="创建时间" dataDxfId="3"/>
+    <tableColumn id="1" name="编号" dataDxfId="8"/>
+    <tableColumn id="2" name="产品标识码" dataDxfId="7"/>
+    <tableColumn id="3" name="产品名称" dataDxfId="6"/>
+    <tableColumn id="4" name="产品类型" dataDxfId="5"/>
+    <tableColumn id="5" name="服务名称" dataDxfId="4"/>
+    <tableColumn id="6" name="验证营销员" dataDxfId="3"/>
+    <tableColumn id="7" name="创建时间" dataDxfId="2"/>
     <tableColumn id="8" name="负责人" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:J145" totalsRowShown="0">
+  <autoFilter ref="A1:J145"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="编号"/>
+    <tableColumn id="2" name="产品标识码"/>
+    <tableColumn id="3" name="产品名称"/>
+    <tableColumn id="4" name="产品类型"/>
+    <tableColumn id="5" name="服务名称"/>
+    <tableColumn id="6" name="验证营销员"/>
+    <tableColumn id="7" name="创建时间"/>
+    <tableColumn id="8" name="负责人"/>
+    <tableColumn id="9" name="项目编码"/>
+    <tableColumn id="10" name="项目名称"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6887,8 +7347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B532"/>
   <sheetViews>
-    <sheetView topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="D536" sqref="D536"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -26113,8 +26573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -29476,4 +29936,4675 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G2">
+        <v>44147.640613425923</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G3">
+        <v>44147.392245370371</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G4">
+        <v>44145.725347222222</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G5">
+        <v>44141.676342592589</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G6">
+        <v>44141.67564814815</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G7">
+        <v>44141.575196759259</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G8">
+        <v>44141.574143518519</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G9">
+        <v>44141.573657407411</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G10">
+        <v>44141.45516203704</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G11">
+        <v>44141.454467592594</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G12">
+        <v>44141.453877314816</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G13">
+        <v>44140.498287037037</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G14">
+        <v>44139.69085648148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G15">
+        <v>44139.60664351852</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G16">
+        <v>44138.634930555556</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G17">
+        <v>44138.406458333331</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G18">
+        <v>44138.405752314815</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G19">
+        <v>44137.432060185187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G20">
+        <v>44133.747812499998</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G21">
+        <v>44132.785740740743</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G22">
+        <v>44131.617638888885</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G23">
+        <v>44127.641423611109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G24">
+        <v>44127.639224537037</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G25">
+        <v>44125.793252314812</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G26">
+        <v>44125.792442129627</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G27">
+        <v>44125.791643518518</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G28">
+        <v>44125.791006944448</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G29">
+        <v>44124.414618055554</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G30">
+        <v>44119.482662037037</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G31">
+        <v>44117.65761574074</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G32">
+        <v>44117.42732638889</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G33">
+        <v>44116.712094907409</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G34">
+        <v>44116.711365740739</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G35">
+        <v>44116.710555555554</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G36">
+        <v>44116.437569444446</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G37">
+        <v>44116.41673611111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G38">
+        <v>44116.4140162037</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G39">
+        <v>44116.413043981483</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G40">
+        <v>44116.382268518515</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G41">
+        <v>44113.719768518517</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G42">
+        <v>44113.716226851851</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G43">
+        <v>44113.713912037034</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G44">
+        <v>44113.709317129629</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G45">
+        <v>44113.708460648151</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G46">
+        <v>44113.707337962966</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G47">
+        <v>44113.669768518521</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G48">
+        <v>44113.463773148149</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G49">
+        <v>44104.57372685185</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G50">
+        <v>44101.404710648145</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G51">
+        <v>44101.40420138889</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G52">
+        <v>44095.685023148151</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G53">
+        <v>44095.683680555558</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G54">
+        <v>44095.649143518516</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G55">
+        <v>44095.648587962962</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G56">
+        <v>44095.648032407407</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G57">
+        <v>44095.647418981483</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G58">
+        <v>44095.380682870367</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G59">
+        <v>44095.380289351851</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G60">
+        <v>44095.379953703705</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G61">
+        <v>44092.643090277779</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G62">
+        <v>44092.641828703701</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G63">
+        <v>44091.44</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G64">
+        <v>44091.439375000002</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G65">
+        <v>44091.438518518517</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G66">
+        <v>44090.692037037035</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G67">
+        <v>44088.463900462964</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G68">
+        <v>44088.411990740744</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G69">
+        <v>44088.410995370374</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G70">
+        <v>44085.694444444445</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G71">
+        <v>44085.69091435185</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G72">
+        <v>44082.721388888887</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G73">
+        <v>44082.720532407409</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G74">
+        <v>44082.719988425924</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G75">
+        <v>44082.648599537039</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G76">
+        <v>44082.589189814818</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G77">
+        <v>44082.421481481484</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G78">
+        <v>44082.420567129629</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G79">
+        <v>44079.446932870371</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G80">
+        <v>44079.444571759261</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G81">
+        <v>44075.692175925928</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G82">
+        <v>44075.68917824074</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G83">
+        <v>44074.663865740738</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G84">
+        <v>44074.663124999999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G85">
+        <v>44074.662523148145</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G86">
+        <v>44074.458310185182</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G87">
+        <v>44071.639733796299</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G88">
+        <v>44071.578819444447</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G89">
+        <v>44068.738993055558</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G90">
+        <v>44068.73809027778</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G91">
+        <v>44068.736851851849</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G92">
+        <v>44068.729722222219</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G93">
+        <v>44068.554907407408</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G94">
+        <v>44068.392013888886</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G95">
+        <v>44068.391631944447</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G96">
+        <v>44067.736435185187</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G97">
+        <v>44067.7109375</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G98">
+        <v>44067.710740740738</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G99">
+        <v>44067.66196759259</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G100">
+        <v>44067.628900462965</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G101">
+        <v>44067.628252314818</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G102">
+        <v>44067.627523148149</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G103">
+        <v>44067.626840277779</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G104">
+        <v>44067.624513888892</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G105">
+        <v>44067.493784722225</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G106">
+        <v>44064.597013888888</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G107">
+        <v>44064.596342592595</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G108">
+        <v>44064.595752314817</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G109">
+        <v>44064.595057870371</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G110">
+        <v>44064.593738425923</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G111">
+        <v>44064.592835648145</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G112">
+        <v>44064.591412037036</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G113">
+        <v>44064.590613425928</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G114">
+        <v>44061.751516203702</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G115">
+        <v>44061.709398148145</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G116">
+        <v>44061.587754629632</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G117">
+        <v>44060.682523148149</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G118">
+        <v>44060.681747685187</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G119">
+        <v>44060.680451388886</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G120">
+        <v>44057.61513888889</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G121">
+        <v>44057.43822916667</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G122">
+        <v>44056.728194444448</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G123">
+        <v>44056.727939814817</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G124">
+        <v>44056.688750000001</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G125">
+        <v>44056.687650462962</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G126">
+        <v>44056.603831018518</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G127">
+        <v>44056.603541666664</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G128">
+        <v>44056.603206018517</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G129">
+        <v>44055.675497685188</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G130">
+        <v>44055.670995370368</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G131">
+        <v>44055.669293981482</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G132">
+        <v>44055.667511574073</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G133">
+        <v>44055.666909722226</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G134">
+        <v>44055.666064814817</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G135">
+        <v>44055.664594907408</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G136">
+        <v>44055.663912037038</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G137">
+        <v>44055.663287037038</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G138">
+        <v>44055.662268518521</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G139">
+        <v>44055.66064814815</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G140">
+        <v>44054.38857638889</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G141">
+        <v>44054.387870370374</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G142">
+        <v>44053.727164351854</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G143">
+        <v>44053.481493055559</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G144">
+        <v>44053.479675925926</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G145">
+        <v>44053.461064814815</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>